--- a/assets/2023-07-28_Spreadsheet.xlsx
+++ b/assets/2023-07-28_Spreadsheet.xlsx
@@ -173,15 +173,15 @@
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -205,7 +205,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -214,29 +214,10 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF8EA9DB"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF8EA9DB"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF8EA9DB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin">
-        <color rgb="FF8EA9DB"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF8EA9DB"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF8EA9DB"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -265,37 +246,29 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -325,7 +298,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF8EA9DB"/>
+      <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
@@ -377,229 +350,229 @@
   </sheetPr>
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="63.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="57.52"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="21.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+    <row r="3" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+    <row r="5" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+    <row r="7" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+    <row r="9" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+    <row r="11" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+      <c r="B14" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
+      <c r="B16" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
+      <c r="B18" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
+      <c r="B20" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
+      <c r="B22" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
+      <c r="B24" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
+      <c r="B26" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>23</v>
       </c>
     </row>

--- a/assets/2023-07-28_Spreadsheet.xlsx
+++ b/assets/2023-07-28_Spreadsheet.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="I_have_a_fever" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t xml:space="preserve">unique word</t>
   </si>
@@ -137,6 +138,27 @@
   </si>
   <si>
     <t xml:space="preserve">racially</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0, 1, 0, 0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0, 0, 1, 0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0, 0, 0, 1]</t>
   </si>
 </sst>
 </file>
@@ -146,7 +168,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -179,6 +201,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -246,7 +283,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -269,6 +306,18 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -343,6 +392,179 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>73080</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>237600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>572760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>238320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="0" name="Horizontal line 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="731520" y="237600"/>
+          <a:ext cx="499680" cy="720"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>73080</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>572760</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>220320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="Horizontal line 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="731520" y="676800"/>
+          <a:ext cx="499680" cy="720"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>69480</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>238680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>569160</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>239400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Horizontal line 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="727920" y="1153080"/>
+          <a:ext cx="499680" cy="720"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>73080</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>219600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>572760</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>220320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Horizontal line 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="731520" y="1591200"/>
+          <a:ext cx="499680" cy="720"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -350,8 +572,8 @@
   </sheetPr>
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -585,4 +807,65 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/assets/2023-07-28_Spreadsheet.xlsx
+++ b/assets/2023-07-28_Spreadsheet.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="I_have_a_fever" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="word-embed-private-main" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="77">
   <si>
     <t xml:space="preserve">unique word</t>
   </si>
@@ -159,6 +160,99 @@
   </si>
   <si>
     <t xml:space="preserve">[0, 0, 0, 1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embedding Layer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[-1.44563206e-02  4.80025075e-02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(index 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-1.59640796e-02 -4.51272503e-02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">’a'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 2.10542418e-02 -8.66242498e-03]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">’of'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-1.84452906e-02  3.47980298e-02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">’with'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 2.58684158e-04  1.32058598e-02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">’and’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 1.89073570e-02  1.84913613e-02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">’the’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-2.98165921e-02 -2.53677499e-02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">’to’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-9.29275900e-03 3.30190696e-02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">’was’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embedding Output (for a given sequence)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[ 1.16442069e-02 -4.48367856e-02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">’This'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 4.07602638e-03 -3.78856547e-02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'60-year-old'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 4.98298556e-03 -3.84058841e-02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">’male'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[-9.29275900e-03  3.30190696e-02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">’was'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 2.67849118e-03 -1.87032111e-02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'hospitalized'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ 3.89778726e-02 -2.80238874e-02]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'due'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'to'</t>
   </si>
 </sst>
 </file>
@@ -222,7 +316,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,6 +333,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9E1F2"/>
         <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBF00"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -283,7 +389,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -308,16 +414,44 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -374,7 +508,7 @@
       <rgbColor rgb="FF4472C4"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFBF00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -572,7 +706,7 @@
   </sheetPr>
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -816,8 +950,8 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -868,4 +1002,172 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.6"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="10"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/assets/2023-07-28_Spreadsheet.xlsx
+++ b/assets/2023-07-28_Spreadsheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
   <si>
     <t xml:space="preserve">unique word</t>
   </si>
@@ -165,49 +165,49 @@
     <t xml:space="preserve">Embedding Layer</t>
   </si>
   <si>
-    <t xml:space="preserve">[[-1.44563206e-02  4.80025075e-02]</t>
+    <t xml:space="preserve">[[ 7.04301521e-03  3.39607336e-02]</t>
   </si>
   <si>
     <t xml:space="preserve">(index 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">[-1.59640796e-02 -4.51272503e-02]</t>
+    <t xml:space="preserve"> [ 4.43325080e-02 -4.35174219e-02]</t>
   </si>
   <si>
     <t xml:space="preserve">’a'</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 2.10542418e-02 -8.66242498e-03]</t>
+    <t xml:space="preserve"> [-1.84080116e-02 -4.48269024e-02]</t>
   </si>
   <si>
     <t xml:space="preserve">’of'</t>
   </si>
   <si>
-    <t xml:space="preserve">[-1.84452906e-02  3.47980298e-02]</t>
+    <t xml:space="preserve"> [-4.74609025e-02  4.29279730e-03]</t>
   </si>
   <si>
     <t xml:space="preserve">’with'</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 2.58684158e-04  1.32058598e-02]</t>
+    <t xml:space="preserve"> [ 1.24161355e-02  4.76875566e-02]</t>
   </si>
   <si>
     <t xml:space="preserve">’and’</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 1.89073570e-02  1.84913613e-02]</t>
+    <t xml:space="preserve"> [-1.89721715e-02 -2.00293791e-02]</t>
   </si>
   <si>
     <t xml:space="preserve">’the’</t>
   </si>
   <si>
-    <t xml:space="preserve">[-2.98165921e-02 -2.53677499e-02]</t>
+    <t xml:space="preserve"> [-2.18192935e-02 -4.75601330e-02]</t>
   </si>
   <si>
     <t xml:space="preserve">’to’</t>
   </si>
   <si>
-    <t xml:space="preserve">[-9.29275900e-03 3.30190696e-02]</t>
+    <t xml:space="preserve"> [-2.51929164e-02 -9.96438414e-03]</t>
   </si>
   <si>
     <t xml:space="preserve">’was’</t>
@@ -216,40 +216,43 @@
     <t xml:space="preserve">Embedding Output (for a given sequence)</t>
   </si>
   <si>
-    <t xml:space="preserve">[[ 1.16442069e-02 -4.48367856e-02]</t>
+    <t xml:space="preserve">[[[ 2.08440907e-02  3.52325179e-02]</t>
   </si>
   <si>
     <t xml:space="preserve">’This'</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 4.07602638e-03 -3.78856547e-02]</t>
+    <t xml:space="preserve">  [-1.70833841e-02 -4.37318459e-02]</t>
   </si>
   <si>
     <t xml:space="preserve">'60-year-old'</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 4.98298556e-03 -3.84058841e-02]</t>
+    <t xml:space="preserve">  [-4.54872735e-02  1.42193772e-02]</t>
   </si>
   <si>
     <t xml:space="preserve">’male'</t>
   </si>
   <si>
-    <t xml:space="preserve">[-9.29275900e-03  3.30190696e-02]</t>
+    <t xml:space="preserve">  [-2.51929164e-02 -9.96438414e-03]</t>
   </si>
   <si>
     <t xml:space="preserve">’was'</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 2.67849118e-03 -1.87032111e-02]</t>
+    <t xml:space="preserve">  [-4.34226505e-02 -2.67695189e-02]</t>
   </si>
   <si>
     <t xml:space="preserve">'hospitalized'</t>
   </si>
   <si>
-    <t xml:space="preserve">[ 3.89778726e-02 -2.80238874e-02]</t>
+    <t xml:space="preserve">  [-3.18809636e-02  3.46260779e-02]</t>
   </si>
   <si>
     <t xml:space="preserve">'due'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [-2.18192935e-02 -4.75601330e-02]</t>
   </si>
   <si>
     <t xml:space="preserve">'to'</t>
@@ -262,7 +265,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -312,6 +315,21 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri "/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri "/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -389,7 +407,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -426,31 +444,43 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1012,13 +1042,13 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1028,7 +1058,7 @@
       <c r="B1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -1036,23 +1066,23 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>53</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -1060,7 +1090,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>55</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -1068,7 +1098,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>57</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -1076,18 +1106,18 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="16" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1106,59 +1136,59 @@
       <c r="B12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="17" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="15" t="s">
+      <c r="A19" s="13" t="s">
         <v>76</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/assets/2023-07-28_Spreadsheet.xlsx
+++ b/assets/2023-07-28_Spreadsheet.xlsx
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/assets/2023-07-28_Spreadsheet.xlsx
+++ b/assets/2023-07-28_Spreadsheet.xlsx
@@ -5,12 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="I_have_a_fever" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="word-embed-private-main" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Table 1" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Sheet1_2" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t xml:space="preserve">unique word</t>
   </si>
@@ -256,16 +258,275 @@
   </si>
   <si>
     <t xml:space="preserve">'to'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doc 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doc 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doc 3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF494949"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Vocabulary </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF5B5B5B"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">size </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF494949"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(N) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6B6B6B"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF494949"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">14</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF494949"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="26"/>
+        <color rgb="FF494949"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">..</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF494949"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="26"/>
+        <color rgb="FF494949"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">t:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="21"/>
+        <color rgb="FF5B5B5B"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF494949"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="21"/>
+        <color rgb="FF5B5B5B"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF494949"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">b</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="12"/>
+        <color rgb="FF494949"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF494949"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">o</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="21"/>
+        <color rgb="FF494949"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF282828"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="21"/>
+        <color rgb="FF494949"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF494949"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">One</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6B6B6B"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF494949"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">hot vector</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Length of vector = 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vocabulary size (N) =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One-hot vector</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="###0;###0"/>
+    <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="30">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -331,6 +592,145 @@
       <color rgb="FF000000"/>
       <name val="Calibri "/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF494949"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF5B5B5B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6B6B6B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF494949"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF3A3A3A"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF494949"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3A3A3A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF494949"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color rgb="FF494949"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF5B5B5B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF494949"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF494949"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="21"/>
+      <color rgb="FF5B5B5B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF494949"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF494949"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="12"/>
+      <color rgb="FF494949"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF282828"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="21"/>
+      <color rgb="FF494949"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Default Metrics Font"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -344,7 +744,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF4472C4"/>
-        <bgColor rgb="FF666699"/>
+        <bgColor rgb="FF6B6B6B"/>
       </patternFill>
     </fill>
     <fill>
@@ -366,7 +766,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -379,6 +779,40 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin">
+        <color rgb="FF282828"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF282828"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF282828"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="medium"/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -407,7 +841,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -452,26 +886,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -482,6 +904,78 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -510,7 +1004,7 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF5B5B5B"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
@@ -541,16 +1035,16 @@
       <rgbColor rgb="FFFFBF00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF6B6B6B"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF282828"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="FF494949"/>
+      <rgbColor rgb="FF3A3A3A"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -981,7 +1475,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1041,7 +1535,7 @@
   </sheetPr>
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1058,7 +1552,7 @@
       <c r="B1" s="10"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -1066,23 +1560,23 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -1090,7 +1584,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>55</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -1098,7 +1592,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>57</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -1106,18 +1600,18 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="13" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1136,59 +1630,1101 @@
       <c r="B12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="14" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="15" t="s">
         <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:O27"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.40625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="9.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="9.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="1.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="9.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="10.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="32.43"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="19"/>
+      <c r="N16" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="18"/>
+      <c r="N17" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" s="18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="0" width="4.33"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" s="32"/>
+      <c r="C9" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" s="32"/>
+      <c r="C10" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" s="32"/>
+      <c r="C12" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="32"/>
+      <c r="E13" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" s="32"/>
+      <c r="C15" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="32"/>
+      <c r="G15" s="33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" s="32"/>
+      <c r="C16" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" s="32"/>
+      <c r="C17" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="32"/>
+      <c r="E17" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" s="32"/>
+      <c r="C18" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="32"/>
+      <c r="E18" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" s="32"/>
+      <c r="C19" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="32"/>
+      <c r="E19" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="32"/>
+      <c r="G19" s="33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="32"/>
+      <c r="E20" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="30" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="30" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
